--- a/EXCEL/PRACTISE.xlsx
+++ b/EXCEL/PRACTISE.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7620"/>
+    <workbookView windowWidth="19635" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -126,6 +127,75 @@
   </si>
   <si>
     <t>EAST</t>
+  </si>
+  <si>
+    <t>QUE?</t>
+  </si>
+  <si>
+    <t>RAHUL</t>
+  </si>
+  <si>
+    <t>TOTAL SALES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">region </t>
+  </si>
+  <si>
+    <t>SEARCH</t>
+  </si>
+  <si>
+    <t>PRIYA</t>
+  </si>
+  <si>
+    <t>AVERAGE SALE</t>
+  </si>
+  <si>
+    <t>SHWETA</t>
+  </si>
+  <si>
+    <t>ARJUN</t>
+  </si>
+  <si>
+    <t>HIGHEST SALE</t>
+  </si>
+  <si>
+    <t>SIMRAN</t>
+  </si>
+  <si>
+    <t>LOWEST SALE</t>
+  </si>
+  <si>
+    <t>NEHA</t>
+  </si>
+  <si>
+    <t>TOTAL PEOPLE</t>
+  </si>
+  <si>
+    <t>KAVYA</t>
+  </si>
+  <si>
+    <t>SNEHA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOW MANY NUMERIC VALUE </t>
+  </si>
+  <si>
+    <t>NITYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emp id </t>
+  </si>
+  <si>
+    <t>emp id</t>
+  </si>
+  <si>
+    <t>rohit</t>
+  </si>
+  <si>
+    <t>sakshi</t>
+  </si>
+  <si>
+    <t>selu</t>
   </si>
 </sst>
 </file>
@@ -485,12 +555,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,7 +702,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -629,34 +714,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -741,11 +826,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1290,7 +1378,7 @@
   <sheetPr/>
   <dimension ref="A3:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
@@ -1573,7 +1661,6 @@
       <c r="C16" t="s">
         <v>32</v>
       </c>
-      <c r="D16"/>
       <c r="I16" t="str">
         <f>HLOOKUP(104,G11:K12,2,G18)</f>
         <v>PINKI</v>
@@ -1599,4 +1686,370 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="29.1428571428571" customWidth="1"/>
+    <col min="13" max="13" width="20.1428571428571" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3">
+        <v>1200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1">
+        <f>SUM(B3:B7)</f>
+        <v>5600</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4">
+        <v>950</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <f>AVERAGE(B3:B7)</f>
+        <v>1120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4">
+        <v>1200</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(B3&gt;1000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(AND(B3&gt;1000,H4="WEST"),"TOP PERFORMER","REGULAR")</f>
+        <v>TOP PERFORMER</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(OR(H4="WEST",H4="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE A</v>
+      </c>
+      <c r="M4" t="str">
+        <f>IFERROR(VLOOKUP(I4,F4:G8,2,FALSE),"NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5">
+        <v>1600</v>
+      </c>
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5">
+        <f>MAX(B5)</f>
+        <v>1600</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>950</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(B4&gt;1000,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(AND(B4&gt;1000,H5="WEST"),"TOP PERFORMER","REGULAR")</f>
+        <v>REGULAR</v>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(OR(H5="WEST",H5="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE B</v>
+      </c>
+      <c r="M5">
+        <f>IFERROR(VLOOKUP(I5,F5:G9,2,FALSE),"NOT FOUND")</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>750</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6">
+        <f>MIN(B3:B7)</f>
+        <v>750</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6">
+        <v>1600</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(B5&gt;1000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(AND(B5&gt;1000,H6="WEST"),"TOP PERFORMER","REGULAR")</f>
+        <v>TOP PERFORMER</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(OR(H6="WEST",H6="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE A</v>
+      </c>
+      <c r="M6">
+        <f>IFERROR(VLOOKUP(I6,F4:G10,2,FALSE),"NOT FOUND")</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7">
+        <v>1100</v>
+      </c>
+      <c r="C7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <f>COUNTA(B3:B8)</f>
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G7">
+        <v>750</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(B6&gt;1000,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(AND(B6&gt;1000,H7="WEST"),"TOP PERFORMER","REGULAR")</f>
+        <v>REGULAR</v>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(OR(H7="WEST",H7="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE A</v>
+      </c>
+      <c r="M7" t="str">
+        <f>IFERROR(VLOOKUP(I7,F7:G11,2,FALSE),"NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13">
+      <c r="B8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="2">
+        <f>COUNT(B3:B8)</f>
+        <v>5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>1100</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s">
+        <v>50</v>
+      </c>
+      <c r="J8" t="str">
+        <f>IF(B7&gt;1000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="K8" t="str">
+        <f>IF(AND(B7&gt;1000,H8="WEST"),"TOP PERFORMER","REGULAR")</f>
+        <v>REGULAR</v>
+      </c>
+      <c r="L8" t="str">
+        <f>IF(OR(H8="WEST",H8="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE B</v>
+      </c>
+      <c r="M8" t="str">
+        <f>IFERROR(VLOOKUP(I8,F8:G12,2,FALSE),"NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(101,A12:B15,2,FALSE)</f>
+        <v>shweta</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12">
+        <v>101</v>
+      </c>
+      <c r="F12">
+        <v>102</v>
+      </c>
+      <c r="G12">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(104,A12:B15,2,FALSE)</f>
+        <v>selu</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" t="str">
+        <f>_xlfn.XLOOKUP(103,A12:A15,B12:B15,2,FALSE)</f>
+        <v>sakshi</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>104</v>
+      </c>
+      <c r="B15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" t="str">
+        <f>_xlfn.XLOOKUP(102,A12:A15,B12:B15,2,FALSE)</f>
+        <v>shruti</v>
+      </c>
+      <c r="D15" t="str">
+        <f>HLOOKUP(102,E12:G13,2,FALSE)</f>
+        <v>rohit</v>
+      </c>
+      <c r="E15" t="str">
+        <f>IFERROR(VLOOKUP(104,E12:G13,2,FALSE),"NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+      <c r="I15" t="e">
+        <f>IF(VLOOKUP(I4,F4:G8,2,FALSE),"NOT FOUND")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <ignoredErrors>
+    <ignoredError sqref="I15" evalError="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/EXCEL/PRACTISE.xlsx
+++ b/EXCEL/PRACTISE.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19635" windowHeight="7620" activeTab="1"/>
+    <workbookView windowWidth="19635" windowHeight="7620" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +28,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t xml:space="preserve">name </t>
   </si>
@@ -196,6 +219,96 @@
   </si>
   <si>
     <t>selu</t>
+  </si>
+  <si>
+    <t>dept</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>maya</t>
+  </si>
+  <si>
+    <t>hr</t>
+  </si>
+  <si>
+    <t>aditi</t>
+  </si>
+  <si>
+    <t>finance</t>
+  </si>
+  <si>
+    <t>IT</t>
+  </si>
+  <si>
+    <t>zoya</t>
+  </si>
+  <si>
+    <t>SALES</t>
+  </si>
+  <si>
+    <t>ANSWER</t>
+  </si>
+  <si>
+    <t>neha</t>
+  </si>
+  <si>
+    <t>find the department of rahul?</t>
+  </si>
+  <si>
+    <t>if sales &gt;1000,then high else low?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">find the salary of zoya </t>
+  </si>
+  <si>
+    <t>if sales&gt;1000 and region south then top performer else regular/</t>
+  </si>
+  <si>
+    <t>find the 3rd salary in th column?</t>
+  </si>
+  <si>
+    <t>if region southor west then zone a else zone b?</t>
+  </si>
+  <si>
+    <t>find the position aditi in the column ?</t>
+  </si>
+  <si>
+    <t>handle the error ?</t>
+  </si>
+  <si>
+    <t>FIND THE POSIITION OF MAYA ?</t>
+  </si>
+  <si>
+    <t>sneha</t>
+  </si>
+  <si>
+    <t>total sale ?</t>
+  </si>
+  <si>
+    <t>total average?</t>
+  </si>
+  <si>
+    <t>highest value?</t>
+  </si>
+  <si>
+    <t>lowest value?</t>
+  </si>
+  <si>
+    <t>how many numric value?</t>
+  </si>
+  <si>
+    <t>how many people ?</t>
   </si>
 </sst>
 </file>
@@ -361,12 +474,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -702,7 +821,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -726,16 +845,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -744,91 +863,97 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
@@ -1379,7 +1504,7 @@
   <dimension ref="A3:M19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1412,10 +1537,10 @@
       <c r="C5" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1" t="str">
+      <c r="E5" s="3" t="str">
         <f>IF(B5&gt;1000,"HIGH","LOW")</f>
         <v>HIGH</v>
       </c>
@@ -1442,10 +1567,10 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" s="1" t="str">
+      <c r="E6" s="3" t="str">
         <f>IF(B6&gt;1000,"HIGH","LOW")</f>
         <v>LOW</v>
       </c>
@@ -1472,10 +1597,10 @@
       <c r="C7" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="1" t="str">
+      <c r="E7" s="3" t="str">
         <f>IF(B7&gt;1000,"HIGH","LOW")</f>
         <v>HIGH</v>
       </c>
@@ -1502,10 +1627,10 @@
       <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="1" t="str">
+      <c r="E8" s="3" t="str">
         <f>IF(B8&gt;1000,"HIGH","LOW")</f>
         <v>LOW</v>
       </c>
@@ -1691,10 +1816,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:M15"/>
+  <dimension ref="A2:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1724,7 +1849,7 @@
       <c r="C3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="3">
         <f>SUM(B3:B7)</f>
         <v>5600</v>
       </c>
@@ -1920,7 +2045,7 @@
       <c r="C8" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="4">
         <f>COUNT(B3:B8)</f>
         <v>5</v>
       </c>
@@ -2043,6 +2168,78 @@
       <c r="I15" t="e">
         <f>IF(VLOOKUP(I4,F4:G8,2,FALSE),"NOT FOUND")</f>
         <v>#N/A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="2">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="2">
+        <v>52000</v>
       </c>
     </row>
   </sheetData>
@@ -2052,4 +2249,408 @@
     <ignoredError sqref="I15" evalError="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A2:M27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="11.4285714285714" customWidth="1"/>
+    <col min="11" max="11" width="10.7142857142857" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45000</v>
+      </c>
+      <c r="D3" t="str" cm="1">
+        <f t="array" ref="D3">INDEX(B3:B7,MATCH("RAHUL",A3:A7,0))</f>
+        <v>IT</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3">
+        <v>1200</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(G3&gt;1000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="K3" t="str">
+        <f>IF(AND(G3&gt;1000,H3="west"),"TOP PERFORMER","REGULAR")</f>
+        <v>TOP PERFORMER</v>
+      </c>
+      <c r="L3" t="str">
+        <f>IF(OR(H3="WEST",H3="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE A</v>
+      </c>
+      <c r="M3" t="str">
+        <f>IFERROR(VLOOKUP(I3,F3:G7,2,FALSE),"NOT FOUND")</f>
+        <v>NOT FOUND</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C4" s="2">
+        <v>48000</v>
+      </c>
+      <c r="D4" cm="1">
+        <f t="array" ref="D4">INDEX(C3:C7,MATCH("ZOYA",A3:A7,0))</f>
+        <v>52000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4">
+        <v>950</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(G4&gt;1000,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
+      <c r="K4" t="str">
+        <f>IF(AND(G4&gt;1000,H4="west"),"TOP PERFORMER","REGULAR")</f>
+        <v>REGULAR</v>
+      </c>
+      <c r="L4" t="str">
+        <f>IF(OR(H4="WEST",H4="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE B</v>
+      </c>
+      <c r="M4" t="str">
+        <f>IFERROR(VLOOKUP(I4,F3:H7,3,FALSE),"NT FOUND")</f>
+        <v>WEST</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="2">
+        <v>50000</v>
+      </c>
+      <c r="D5">
+        <f>INDEX(C3:C7,3)</f>
+        <v>50000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5">
+        <v>1600</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>54</v>
+      </c>
+      <c r="J5" t="str">
+        <f>IF(G5&gt;1000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="K5" t="str">
+        <f>IF(AND(G5&gt;1000,H5="west"),"TOP PERFORMER","REGULAR")</f>
+        <v>TOP PERFORMER</v>
+      </c>
+      <c r="L5" t="str">
+        <f>IF(OR(H5="WEST",H5="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE A</v>
+      </c>
+      <c r="M5" t="str">
+        <f>IFERROR(VLOOKUP(I5,F4:H8,3,FALSE),"NT FOUND")</f>
+        <v>NT FOUND</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="2">
+        <v>47000</v>
+      </c>
+      <c r="D6">
+        <f>MATCH("ADITI",A3:A7,0)</f>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6">
+        <v>750</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" t="str">
+        <f>IF(G6&gt;1000,"HIGH","LOW")</f>
+        <v>LOW</v>
+      </c>
+      <c r="K6" t="str">
+        <f>IF(AND(G6&gt;1000,H6="west"),"TOP PERFORMER","REGULAR")</f>
+        <v>REGULAR</v>
+      </c>
+      <c r="L6" t="str">
+        <f>IF(OR(H6="WEST",H6="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE A</v>
+      </c>
+      <c r="M6" t="str">
+        <f>IFERROR(VLOOKUP(I6,F5:H9,3,FALSE),"NT FOUND")</f>
+        <v>WEST</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="2">
+        <v>52000</v>
+      </c>
+      <c r="D7">
+        <f>MATCH("MAYA",A3:A7,0)</f>
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7">
+        <v>1100</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>69</v>
+      </c>
+      <c r="J7" t="str">
+        <f>IF(G7&gt;1000,"HIGH","LOW")</f>
+        <v>HIGH</v>
+      </c>
+      <c r="K7" t="str">
+        <f>IF(AND(G7&gt;1000,H7="west"),"TOP PERFORMER","REGULAR")</f>
+        <v>REGULAR</v>
+      </c>
+      <c r="L7" t="str">
+        <f>IF(OR(H7="WEST",H7="SOUTH"),"ZONE A","ZONE B")</f>
+        <v>ZONE B</v>
+      </c>
+      <c r="M7" t="str">
+        <f>IFERROR(VLOOKUP(I7,F6:H10,3,FALSE),"NT FOUND")</f>
+        <v>NORTH</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>70</v>
+      </c>
+      <c r="F9" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16">
+        <v>1200</v>
+      </c>
+      <c r="C16" s="3">
+        <f>SUM(B16:B20)</f>
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>950</v>
+      </c>
+      <c r="C17">
+        <f>AVERAGE(B16:B20)</f>
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>1600</v>
+      </c>
+      <c r="C18">
+        <f>MAX(B16:B20)</f>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>750</v>
+      </c>
+      <c r="C19">
+        <f>MIN(B16:B20)</f>
+        <v>750</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20">
+        <f>COUNTA(B16:B20)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21">
+        <f>COUNT(B16:B20)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>